--- a/KoiManagement/Content/FileImport/Koi.xlsx
+++ b/KoiManagement/Content/FileImport/Koi.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Tên cá koi</t>
-  </si>
-  <si>
     <t>Chủng loại</t>
   </si>
   <si>
@@ -30,9 +27,6 @@
     <t>Xuất xứ</t>
   </si>
   <si>
-    <t>Ảnh 1</t>
-  </si>
-  <si>
     <t>Ảnh 2</t>
   </si>
   <si>
@@ -45,10 +39,16 @@
     <t>Ảnh 5</t>
   </si>
   <si>
-    <t>Ngày sinh(dd/MM/YYYY))</t>
-  </si>
-  <si>
-    <t>Kích thước(cm)</t>
+    <t>Tên cá koi(*)</t>
+  </si>
+  <si>
+    <t>Ngày sinh(dd/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Kích thước(cm)(*)</t>
+  </si>
+  <si>
+    <t>Ảnh 1(Ảnh đại diện)(*)</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,9 +400,10 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
@@ -410,41 +411,43 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>33209</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/KoiManagement/Content/FileImport/Koi.xlsx
+++ b/KoiManagement/Content/FileImport/Koi.xlsx
@@ -39,26 +39,165 @@
     <t>Ảnh 5</t>
   </si>
   <si>
-    <t>Tên cá koi(*)</t>
-  </si>
-  <si>
-    <t>Ngày sinh(dd/MM/YYYY)</t>
-  </si>
-  <si>
-    <t>Kích thước(cm)(*)</t>
-  </si>
-  <si>
-    <t>Ảnh 1(Ảnh đại diện)(*)</t>
+    <r>
+      <t>Tên cá koi(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngày sinh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dd/MM/YYYY)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kích thước</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ảnh 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Ảnh đại diện)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,7 +530,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +584,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="1">
-        <v>33209</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -459,6 +596,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KoiManagement/Content/FileImport/Koi.xlsx
+++ b/KoiManagement/Content/FileImport/Koi.xlsx
@@ -7,16 +7,52 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ImportData" sheetId="1" r:id="rId1"/>
+    <sheet name="Dữ liệu mẫu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tại đây chỉ nhập tên ảnh tương ứng. Hệ thống sẽ tự động mapping khi browse đến ảnh.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+  <si>
+    <t>Tên cá koi</t>
+  </si>
   <si>
     <t>Chủng loại</t>
   </si>
@@ -27,6 +63,9 @@
     <t>Xuất xứ</t>
   </si>
   <si>
+    <t>Ảnh 1</t>
+  </si>
+  <si>
     <t>Ảnh 2</t>
   </si>
   <si>
@@ -39,141 +78,71 @@
     <t>Ảnh 5</t>
   </si>
   <si>
-    <r>
-      <t>Tên cá koi(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ngày sinh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dd/MM/YYYY)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kích thước</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(cm)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ảnh 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Ảnh đại diện)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>Kích thước(cm)</t>
+  </si>
+  <si>
+    <t>Đực</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Chưa rõ</t>
+  </si>
+  <si>
+    <t>testimport1</t>
+  </si>
+  <si>
+    <t>testimport2</t>
+  </si>
+  <si>
+    <t>testimport3</t>
+  </si>
+  <si>
+    <t>Bekko</t>
+  </si>
+  <si>
+    <t>Showa</t>
+  </si>
+  <si>
+    <t>koi01</t>
+  </si>
+  <si>
+    <t>koi02</t>
+  </si>
+  <si>
+    <t>koi03</t>
+  </si>
+  <si>
+    <t>koi04</t>
+  </si>
+  <si>
+    <t>koi05</t>
+  </si>
+  <si>
+    <t>koi06</t>
+  </si>
+  <si>
+    <t>koi07</t>
+  </si>
+  <si>
+    <t>koi08</t>
+  </si>
+  <si>
+    <t>koi09</t>
+  </si>
+  <si>
+    <t>Ngày sinh(dd/MM/YYYY)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,25 +151,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +500,9 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
@@ -550,41 +510,47 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -596,30 +562,158 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41275</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40179</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40180</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Chưa rõ,Đực,Cái"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4">
+      <formula1>"Chưa rõ,Showa,Kohaku,Sanke,Bekko,Utsurimono,Asagi,Tancho,Hikarimuji,Shusui,Goromo,Matsuba,Kawari,mono,Chagoi,Goshiki,Kinginrin,Ochiba,Hariwake,Benigoi"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KoiManagement/Content/FileImport/Koi.xlsx
+++ b/KoiManagement/Content/FileImport/Koi.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Tên cá koi</t>
   </si>
@@ -136,13 +136,58 @@
   </si>
   <si>
     <t>Ngày sinh(dd/MM/YYYY)</t>
+  </si>
+  <si>
+    <r>
+      <t>Tên cá koi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kích thước(cm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ảnh 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +207,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,7 +543,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +552,7 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
@@ -510,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -522,13 +574,13 @@
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -562,6 +614,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
